--- a/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE77680A-A537-484E-AD9F-63F2133AD3AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BC6A7-9160-47D7-8937-ED87281C8C96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="358">
   <si>
     <t>setting_name</t>
   </si>
@@ -675,9 +675,6 @@
     <t>linked_signature</t>
   </si>
   <si>
-    <t>{ID: data('ID'), LASTVISIT: data('LASTVISIT'), CICA:data('CICA'), CONSENTSIG:data('CONSENTSIG') }</t>
-  </si>
-  <si>
     <t>ESTADOVIS</t>
   </si>
   <si>
@@ -712,6 +709,402 @@
   </si>
   <si>
     <t>Visit interview with {{data.NOMEMAE}} and ID: {{data.ID}}</t>
+  </si>
+  <si>
+    <t>VAC1TIPO</t>
+  </si>
+  <si>
+    <t>VAC1DATA</t>
+  </si>
+  <si>
+    <t>VAC1INF</t>
+  </si>
+  <si>
+    <t>linked_vac1tipo</t>
+  </si>
+  <si>
+    <t>linked_vac1data</t>
+  </si>
+  <si>
+    <t>linked_vac1inf</t>
+  </si>
+  <si>
+    <t>linked_vac2inf</t>
+  </si>
+  <si>
+    <t>linked_vac2tipo</t>
+  </si>
+  <si>
+    <t>linked_vac2data</t>
+  </si>
+  <si>
+    <t>linked_vac3inf</t>
+  </si>
+  <si>
+    <t>linked_vac3tipo</t>
+  </si>
+  <si>
+    <t>linked_vac3data</t>
+  </si>
+  <si>
+    <t>linked_vac4inf</t>
+  </si>
+  <si>
+    <t>linked_vac4tipo</t>
+  </si>
+  <si>
+    <t>linked_vac4data</t>
+  </si>
+  <si>
+    <t>linked_vac5inf</t>
+  </si>
+  <si>
+    <t>linked_vac5tipo</t>
+  </si>
+  <si>
+    <t>linked_vac5data</t>
+  </si>
+  <si>
+    <t>linked_vac6inf</t>
+  </si>
+  <si>
+    <t>linked_vac6tipo</t>
+  </si>
+  <si>
+    <t>linked_vac6data</t>
+  </si>
+  <si>
+    <t>linked_vac7tipo</t>
+  </si>
+  <si>
+    <t>linked_vac7data</t>
+  </si>
+  <si>
+    <t>linked_vac7inf</t>
+  </si>
+  <si>
+    <t>linked_vac8tipo</t>
+  </si>
+  <si>
+    <t>linked_vac8data</t>
+  </si>
+  <si>
+    <t>linked_vac8inf</t>
+  </si>
+  <si>
+    <t>linked_vac9tipo</t>
+  </si>
+  <si>
+    <t>linked_vac9data</t>
+  </si>
+  <si>
+    <t>linked_vac9inf</t>
+  </si>
+  <si>
+    <t>linked_vac10tipo</t>
+  </si>
+  <si>
+    <t>linked_vac10data</t>
+  </si>
+  <si>
+    <t>linked_vac10inf</t>
+  </si>
+  <si>
+    <t>linked_vac11tipo</t>
+  </si>
+  <si>
+    <t>linked_vac11data</t>
+  </si>
+  <si>
+    <t>linked_vac11inf</t>
+  </si>
+  <si>
+    <t>linked_vac12tipo</t>
+  </si>
+  <si>
+    <t>linked_vac12data</t>
+  </si>
+  <si>
+    <t>linked_vac12inf</t>
+  </si>
+  <si>
+    <t>linked_vac13tipo</t>
+  </si>
+  <si>
+    <t>linked_vac13data</t>
+  </si>
+  <si>
+    <t>linked_vac13inf</t>
+  </si>
+  <si>
+    <t>linked_vac14tipo</t>
+  </si>
+  <si>
+    <t>linked_vac14data</t>
+  </si>
+  <si>
+    <t>linked_vac14inf</t>
+  </si>
+  <si>
+    <t>linked_vac15tipo</t>
+  </si>
+  <si>
+    <t>linked_vac15data</t>
+  </si>
+  <si>
+    <t>linked_vac15inf</t>
+  </si>
+  <si>
+    <t>linked_vac16tipo</t>
+  </si>
+  <si>
+    <t>linked_vac16data</t>
+  </si>
+  <si>
+    <t>linked_vac16inf</t>
+  </si>
+  <si>
+    <t>linked_vac17tipo</t>
+  </si>
+  <si>
+    <t>linked_vac17data</t>
+  </si>
+  <si>
+    <t>linked_vac17inf</t>
+  </si>
+  <si>
+    <t>linked_vac18tipo</t>
+  </si>
+  <si>
+    <t>linked_vac18data</t>
+  </si>
+  <si>
+    <t>linked_vac18inf</t>
+  </si>
+  <si>
+    <t>linked_vac19tipo</t>
+  </si>
+  <si>
+    <t>linked_vac19data</t>
+  </si>
+  <si>
+    <t>linked_vac19inf</t>
+  </si>
+  <si>
+    <t>linked_vac20tipo</t>
+  </si>
+  <si>
+    <t>linked_vac20data</t>
+  </si>
+  <si>
+    <t>linked_vac20inf</t>
+  </si>
+  <si>
+    <t>VAC2INF</t>
+  </si>
+  <si>
+    <t>VAC2TIPO</t>
+  </si>
+  <si>
+    <t>VAC2DATA</t>
+  </si>
+  <si>
+    <t>VAC3TIPO</t>
+  </si>
+  <si>
+    <t>VAC3DATA</t>
+  </si>
+  <si>
+    <t>VAC3INF</t>
+  </si>
+  <si>
+    <t>VAC4TIPO</t>
+  </si>
+  <si>
+    <t>VAC4DATA</t>
+  </si>
+  <si>
+    <t>VAC4INF</t>
+  </si>
+  <si>
+    <t>VAC5TIPO</t>
+  </si>
+  <si>
+    <t>VAC5DATA</t>
+  </si>
+  <si>
+    <t>VAC5INF</t>
+  </si>
+  <si>
+    <t>VAC6TIPO</t>
+  </si>
+  <si>
+    <t>VAC6DATA</t>
+  </si>
+  <si>
+    <t>VAC6INF</t>
+  </si>
+  <si>
+    <t>VAC7TIPO</t>
+  </si>
+  <si>
+    <t>VAC7DATA</t>
+  </si>
+  <si>
+    <t>VAC7INF</t>
+  </si>
+  <si>
+    <t>VAC8TIPO</t>
+  </si>
+  <si>
+    <t>VAC8DATA</t>
+  </si>
+  <si>
+    <t>VAC8INF</t>
+  </si>
+  <si>
+    <t>VAC9TIPO</t>
+  </si>
+  <si>
+    <t>VAC9DATA</t>
+  </si>
+  <si>
+    <t>VAC9INF</t>
+  </si>
+  <si>
+    <t>VAC10TIPO</t>
+  </si>
+  <si>
+    <t>VAC10DATA</t>
+  </si>
+  <si>
+    <t>VAC10INF</t>
+  </si>
+  <si>
+    <t>VAC11TIPO</t>
+  </si>
+  <si>
+    <t>VAC11DATA</t>
+  </si>
+  <si>
+    <t>VAC11INF</t>
+  </si>
+  <si>
+    <t>VAC12TIPO</t>
+  </si>
+  <si>
+    <t>VAC12DATA</t>
+  </si>
+  <si>
+    <t>VAC12INF</t>
+  </si>
+  <si>
+    <t>VAC13TIPO</t>
+  </si>
+  <si>
+    <t>VAC13DATA</t>
+  </si>
+  <si>
+    <t>VAC13INF</t>
+  </si>
+  <si>
+    <t>VAC14TIPO</t>
+  </si>
+  <si>
+    <t>VAC14DATA</t>
+  </si>
+  <si>
+    <t>VAC14INF</t>
+  </si>
+  <si>
+    <t>VAC15TIPO</t>
+  </si>
+  <si>
+    <t>VAC15DATA</t>
+  </si>
+  <si>
+    <t>VAC15INF</t>
+  </si>
+  <si>
+    <t>VAC16TIPO</t>
+  </si>
+  <si>
+    <t>VAC16DATA</t>
+  </si>
+  <si>
+    <t>VAC16INF</t>
+  </si>
+  <si>
+    <t>VAC17TIPO</t>
+  </si>
+  <si>
+    <t>VAC17DATA</t>
+  </si>
+  <si>
+    <t>VAC17INF</t>
+  </si>
+  <si>
+    <t>VAC18TIPO</t>
+  </si>
+  <si>
+    <t>VAC18DATA</t>
+  </si>
+  <si>
+    <t>VAC18INF</t>
+  </si>
+  <si>
+    <t>VAC19TIPO</t>
+  </si>
+  <si>
+    <t>VAC19DATA</t>
+  </si>
+  <si>
+    <t>VAC19INF</t>
+  </si>
+  <si>
+    <t>VAC20TIPO</t>
+  </si>
+  <si>
+    <t>VAC20DATA</t>
+  </si>
+  <si>
+    <t>VAC20INF</t>
+  </si>
+  <si>
+    <t>{ID: data('ID'), LASTVISIT: data('LASTVISIT'), CICA:data('CICA'), CONSENTSIG:data('CONSENTSIG'), VAC1TIPO:data('VAC1TIPO'), VAC1DATA:data('VAC1DATA'), VAC1INF:data('VAC1INF'), VAC2TIPO:data('VAC2TIPO'), VAC2DATA:data('VAC2DATA'), VAC2INF:data('VAC2INF'), VAC3TIPO:data('VAC3TIPO'), VAC3DATA:data('VAC3DATA'), VAC3INF:data('VAC3INF'), VAC4TIPO:data('VAC4TIPO'), VAC4DATA:data('VAC4DATA'), VAC4INF:data('VAC4INF'), VAC5TIPO:data('VAC5TIPO'), VAC5DATA:data('VAC5DATA'), VAC5INF:data('VAC5INF'), VAC6TIPO:data('VAC6TIPO'), VAC6DATA:data('VAC6DATA'), VAC6INF:data('VAC6INF'), VAC7TIPO:data('VAC7TIPO'), VAC7DATA:data('VAC7DATA'), VAC7INF:data('VAC7INF'), VAC8TIPO:data('VAC8TIPO'), VAC8DATA:data('VAC8DATA'), VAC8INF:data('VAC8INF'), VAC9TIPO:data('VAC9TIPO'), VAC9DATA:data('VAC9DATA'), VAC9INF:data('VAC9INF'), VAC10TIPO:data('VAC10TIPO'), VAC10DATA:data('VAC10DATA'), VAC10INF:data('VAC10INF'), VAC11TIPO:data('VAC11TIPO'), VAC11DATA:data('VAC11DATA'), VAC11INF:data('VAC11INF'), VAC12TIPO:data('VAC12TIPO'), VAC12DATA:data('VAC12DATA'), VAC12INF:data('VAC12INF'), VAC13TIPO:data('VAC13TIPO'), VAC13DATA:data('VAC13DATA'), VAC13INF:data('VAC13INF'), VAC14TIPO:data('VAC14TIPO'), VAC14DATA:data('VAC14DATA'), VAC14INF:data('VAC14INF'), VAC15TIPO:data('VAC15TIPO'), VAC15DATA:data('VAC15DATA'), VAC15INF:data('VAC15INF'), VAC16TIPO:data('VAC16TIPO'), VAC16DATA:data('VAC16DATA'), VAC16INF:data('VAC16INF'), VAC17TIPO:data('VAC17TIPO'), VAC17DATA:data('VAC17DATA'), VAC17INF:data('VAC17INF'), VAC18TIPO:data('VAC18TIPO'), VAC18DATA:data('VAC18DATA'), VAC18INF:data('VAC18INF'), VAC19TIPO:data('VAC19TIPO'), VAC19DATA:data('VAC19DATA'), VAC19INF:data('VAC19INF'), VAC20TIPO:data('VAC20TIPO'), VAC20DATA:data('VAC20DATA'), VAC20INF:data('VAC20INF') }</t>
+  </si>
+  <si>
+    <t>ABNS</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>FALNS</t>
+  </si>
+  <si>
+    <t>MIFDNASCNS</t>
+  </si>
+  <si>
+    <t>MIFMAENS</t>
+  </si>
+  <si>
+    <t>MIFMONDENS</t>
+  </si>
+  <si>
+    <t>NMNS</t>
+  </si>
+  <si>
+    <t>PARTNS</t>
+  </si>
+  <si>
+    <t>VACNOHNS</t>
+  </si>
+  <si>
+    <t>VIVONS</t>
+  </si>
+  <si>
+    <t>IDFANNS</t>
   </si>
 </sst>
 </file>
@@ -806,7 +1199,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -832,7 +1225,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1119,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -1226,11 +1618,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1678,7 @@
         <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,10 +1739,10 @@
         <v>200</v>
       </c>
       <c r="E10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" t="s">
         <v>224</v>
-      </c>
-      <c r="F10" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1358,10 +1750,10 @@
         <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1369,10 +1761,10 @@
         <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1380,59 +1772,719 @@
         <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>258</v>
+      </c>
+      <c r="F43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>259</v>
+      </c>
+      <c r="F44" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D45" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D47" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" t="s">
+        <v>263</v>
+      </c>
+      <c r="F48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" t="s">
+        <v>264</v>
+      </c>
+      <c r="F49" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D53" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D54" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D55" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D56" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>271</v>
+      </c>
+      <c r="F56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D57" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" t="s">
+        <v>272</v>
+      </c>
+      <c r="F57" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" t="s">
+        <v>273</v>
+      </c>
+      <c r="F58" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" t="s">
+        <v>274</v>
+      </c>
+      <c r="F59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" t="s">
+        <v>275</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" t="s">
+        <v>276</v>
+      </c>
+      <c r="F61" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>277</v>
+      </c>
+      <c r="F62" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" t="s">
+        <v>278</v>
+      </c>
+      <c r="F63" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F64" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" t="s">
+        <v>281</v>
+      </c>
+      <c r="F66" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" t="s">
+        <v>284</v>
+      </c>
+      <c r="F69" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" t="s">
+        <v>286</v>
+      </c>
+      <c r="F71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73" t="s">
+        <v>288</v>
+      </c>
+      <c r="F73" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D77" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F77" t="s">
+        <v>216</v>
+      </c>
+      <c r="I77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
-      <c r="G21" s="15"/>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" s="14"/>
+      <c r="G81" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1441,11 +2493,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656AD7B-1D25-49AF-8239-544F03B0CB49}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +2510,7 @@
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1511,7 +2563,7 @@
         <v>194</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>195</v>
@@ -1608,7 +2660,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
         <v>192</v>
@@ -1632,12 +2684,12 @@
         <v>195</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
         <v>192</v>
@@ -1661,12 +2713,12 @@
         <v>195</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>192</v>
@@ -1690,12 +2742,12 @@
         <v>195</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -1719,7 +2771,1747 @@
         <v>195</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>245</v>
+      </c>
+      <c r="B25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" t="s">
+        <v>193</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E40" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" t="s">
+        <v>197</v>
+      </c>
+      <c r="E42" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>263</v>
+      </c>
+      <c r="B44" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>264</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I47" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" t="s">
+        <v>192</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>197</v>
+      </c>
+      <c r="E48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I49" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I51" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>197</v>
+      </c>
+      <c r="D52" t="s">
+        <v>197</v>
+      </c>
+      <c r="E52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I54" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I56" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I58" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" t="s">
+        <v>197</v>
+      </c>
+      <c r="D59" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" t="s">
+        <v>193</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I61" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>281</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I62" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E63" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>284</v>
+      </c>
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I65" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I66" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" t="s">
+        <v>197</v>
+      </c>
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I67" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I68" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +4526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,8 +4583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
@@ -2615,16 +5407,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2653,10 +5445,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -2664,7 +5456,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -2675,10 +5467,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -2686,7 +5478,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>134</v>
@@ -2697,10 +5489,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -2708,7 +5500,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -2719,10 +5511,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -2730,10 +5522,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2741,10 +5533,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -2752,18 +5544,18 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -2774,21 +5566,21 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2796,10 +5588,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>349</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2807,7 +5599,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>134</v>
@@ -2818,10 +5610,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2829,10 +5621,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2840,10 +5632,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2851,7 +5643,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -2862,10 +5654,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2873,32 +5665,32 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>348</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2906,32 +5698,32 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2939,10 +5731,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>350</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -2950,10 +5742,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -2961,10 +5753,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -2972,7 +5764,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
         <v>128</v>
@@ -2983,10 +5775,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -2994,10 +5786,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -3005,10 +5797,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -3016,10 +5808,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -3027,10 +5819,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -3038,10 +5830,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -3049,7 +5841,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
         <v>128</v>
@@ -3060,7 +5852,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
@@ -3071,10 +5863,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -3082,21 +5874,32 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>199</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>202</v>
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -3104,10 +5907,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>200</v>
+        <v>168</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -3115,10 +5918,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>212</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>200</v>
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -3126,23 +5929,782 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>215</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>200</v>
+        <v>169</v>
+      </c>
+      <c r="B47" t="s">
+        <v>128</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>356</v>
+      </c>
+      <c r="B52" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C49" t="b">
+      <c r="B59" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>228</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>293</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>294</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>296</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>297</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>298</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>299</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>306</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>307</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>308</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>313</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>314</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>315</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>316</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>319</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>321</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>322</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>324</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>325</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>327</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>328</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>329</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>330</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>331</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>333</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>337</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>338</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>339</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>340</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>342</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>343</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>344</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>345</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480BC6A7-9160-47D7-8937-ED87281C8C96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6338EE-5CBD-4A32-B270-A504A61BFD85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="361">
   <si>
     <t>setting_name</t>
   </si>
@@ -1105,6 +1105,15 @@
   </si>
   <si>
     <t>IDFANNS</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
   </si>
 </sst>
 </file>
@@ -1621,8 +1630,8 @@
   <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,9 +2504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656AD7B-1D25-49AF-8239-544F03B0CB49}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:A69"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4522,18 +4531,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEE0111-81BA-4176-9A00-043924532704}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4572,6 +4581,20 @@
       <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -4583,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
@@ -5410,8 +5433,8 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,7 +5548,7 @@
         <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -5888,7 +5911,7 @@
         <v>150</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>358</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>

--- a/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6338EE-5CBD-4A32-B270-A504A61BFD85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DC510E-7F73-4EA2-AF80-9F887679B89D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="363">
   <si>
     <t>setting_name</t>
   </si>
@@ -1114,6 +1114,12 @@
   </si>
   <si>
     <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>ESCONS</t>
+  </si>
+  <si>
+    <t>linked_school</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1637,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,11 +2508,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656AD7B-1D25-49AF-8239-544F03B0CB49}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2704,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s">
         <v>192</v>
@@ -2715,19 +2721,19 @@
       <c r="F7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>195</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>195</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
         <v>192</v>
@@ -2751,12 +2757,12 @@
         <v>195</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -2780,12 +2786,12 @@
         <v>195</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
         <v>192</v>
@@ -2808,13 +2814,13 @@
       <c r="H10" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I10" t="s">
-        <v>226</v>
+      <c r="I10" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>192</v>
@@ -2838,12 +2844,12 @@
         <v>195</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
         <v>192</v>
@@ -2867,12 +2873,12 @@
         <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
         <v>192</v>
@@ -2896,12 +2902,12 @@
         <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
         <v>192</v>
@@ -2925,12 +2931,12 @@
         <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
         <v>192</v>
@@ -2954,12 +2960,12 @@
         <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
         <v>192</v>
@@ -2983,12 +2989,12 @@
         <v>195</v>
       </c>
       <c r="I16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
         <v>192</v>
@@ -3012,12 +3018,12 @@
         <v>195</v>
       </c>
       <c r="I17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
         <v>192</v>
@@ -3041,12 +3047,12 @@
         <v>195</v>
       </c>
       <c r="I18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
         <v>192</v>
@@ -3070,12 +3076,12 @@
         <v>195</v>
       </c>
       <c r="I19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
         <v>192</v>
@@ -3099,12 +3105,12 @@
         <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
         <v>192</v>
@@ -3128,12 +3134,12 @@
         <v>195</v>
       </c>
       <c r="I21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
         <v>192</v>
@@ -3157,12 +3163,12 @@
         <v>195</v>
       </c>
       <c r="I22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
         <v>192</v>
@@ -3186,12 +3192,12 @@
         <v>195</v>
       </c>
       <c r="I23" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
         <v>192</v>
@@ -3215,12 +3221,12 @@
         <v>195</v>
       </c>
       <c r="I24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
         <v>192</v>
@@ -3244,12 +3250,12 @@
         <v>195</v>
       </c>
       <c r="I25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
         <v>192</v>
@@ -3273,12 +3279,12 @@
         <v>195</v>
       </c>
       <c r="I26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s">
         <v>192</v>
@@ -3302,12 +3308,12 @@
         <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s">
         <v>192</v>
@@ -3331,12 +3337,12 @@
         <v>195</v>
       </c>
       <c r="I28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s">
         <v>192</v>
@@ -3360,12 +3366,12 @@
         <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s">
         <v>192</v>
@@ -3389,12 +3395,12 @@
         <v>195</v>
       </c>
       <c r="I30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
         <v>192</v>
@@ -3418,12 +3424,12 @@
         <v>195</v>
       </c>
       <c r="I31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
         <v>192</v>
@@ -3447,12 +3453,12 @@
         <v>195</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B33" t="s">
         <v>192</v>
@@ -3476,12 +3482,12 @@
         <v>195</v>
       </c>
       <c r="I33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s">
         <v>192</v>
@@ -3505,12 +3511,12 @@
         <v>195</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s">
         <v>192</v>
@@ -3534,12 +3540,12 @@
         <v>195</v>
       </c>
       <c r="I35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s">
         <v>192</v>
@@ -3563,12 +3569,12 @@
         <v>195</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B37" t="s">
         <v>192</v>
@@ -3592,12 +3598,12 @@
         <v>195</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
         <v>192</v>
@@ -3621,12 +3627,12 @@
         <v>195</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B39" t="s">
         <v>192</v>
@@ -3650,12 +3656,12 @@
         <v>195</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s">
         <v>192</v>
@@ -3679,12 +3685,12 @@
         <v>195</v>
       </c>
       <c r="I40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B41" t="s">
         <v>192</v>
@@ -3708,12 +3714,12 @@
         <v>195</v>
       </c>
       <c r="I41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s">
         <v>192</v>
@@ -3737,12 +3743,12 @@
         <v>195</v>
       </c>
       <c r="I42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B43" t="s">
         <v>192</v>
@@ -3766,12 +3772,12 @@
         <v>195</v>
       </c>
       <c r="I43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s">
         <v>192</v>
@@ -3795,12 +3801,12 @@
         <v>195</v>
       </c>
       <c r="I44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B45" t="s">
         <v>192</v>
@@ -3824,12 +3830,12 @@
         <v>195</v>
       </c>
       <c r="I45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
         <v>192</v>
@@ -3853,12 +3859,12 @@
         <v>195</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
         <v>192</v>
@@ -3882,12 +3888,12 @@
         <v>195</v>
       </c>
       <c r="I47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s">
         <v>192</v>
@@ -3911,12 +3917,12 @@
         <v>195</v>
       </c>
       <c r="I48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s">
         <v>192</v>
@@ -3940,12 +3946,12 @@
         <v>195</v>
       </c>
       <c r="I49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s">
         <v>192</v>
@@ -3969,12 +3975,12 @@
         <v>195</v>
       </c>
       <c r="I50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B51" t="s">
         <v>192</v>
@@ -3998,12 +4004,12 @@
         <v>195</v>
       </c>
       <c r="I51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s">
         <v>192</v>
@@ -4027,12 +4033,12 @@
         <v>195</v>
       </c>
       <c r="I52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B53" t="s">
         <v>192</v>
@@ -4056,12 +4062,12 @@
         <v>195</v>
       </c>
       <c r="I53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s">
         <v>192</v>
@@ -4085,12 +4091,12 @@
         <v>195</v>
       </c>
       <c r="I54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B55" t="s">
         <v>192</v>
@@ -4114,12 +4120,12 @@
         <v>195</v>
       </c>
       <c r="I55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" t="s">
         <v>192</v>
@@ -4143,12 +4149,12 @@
         <v>195</v>
       </c>
       <c r="I56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
         <v>192</v>
@@ -4172,12 +4178,12 @@
         <v>195</v>
       </c>
       <c r="I57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B58" t="s">
         <v>192</v>
@@ -4201,12 +4207,12 @@
         <v>195</v>
       </c>
       <c r="I58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B59" t="s">
         <v>192</v>
@@ -4230,12 +4236,12 @@
         <v>195</v>
       </c>
       <c r="I59" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B60" t="s">
         <v>192</v>
@@ -4259,12 +4265,12 @@
         <v>195</v>
       </c>
       <c r="I60" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" t="s">
         <v>192</v>
@@ -4288,12 +4294,12 @@
         <v>195</v>
       </c>
       <c r="I61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B62" t="s">
         <v>192</v>
@@ -4317,12 +4323,12 @@
         <v>195</v>
       </c>
       <c r="I62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B63" t="s">
         <v>192</v>
@@ -4346,12 +4352,12 @@
         <v>195</v>
       </c>
       <c r="I63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64" t="s">
         <v>192</v>
@@ -4375,12 +4381,12 @@
         <v>195</v>
       </c>
       <c r="I64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B65" t="s">
         <v>192</v>
@@ -4404,12 +4410,12 @@
         <v>195</v>
       </c>
       <c r="I65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B66" t="s">
         <v>192</v>
@@ -4433,12 +4439,12 @@
         <v>195</v>
       </c>
       <c r="I66" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s">
         <v>192</v>
@@ -4462,12 +4468,12 @@
         <v>195</v>
       </c>
       <c r="I67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B68" t="s">
         <v>192</v>
@@ -4491,35 +4497,64 @@
         <v>195</v>
       </c>
       <c r="I68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>287</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" t="s">
+        <v>193</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>288</v>
       </c>
-      <c r="B69" t="s">
-        <v>192</v>
-      </c>
-      <c r="C69" t="s">
-        <v>197</v>
-      </c>
-      <c r="D69" t="s">
-        <v>197</v>
-      </c>
-      <c r="E69" t="s">
-        <v>193</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="B70" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="I70" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5430,17 +5465,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5503,8 +5538,8 @@
       <c r="A6" t="s">
         <v>148</v>
       </c>
-      <c r="B6" t="s">
-        <v>134</v>
+      <c r="B6" s="14" t="s">
+        <v>200</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -5534,10 +5569,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -5545,10 +5580,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -5556,10 +5591,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -5567,10 +5602,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -5578,18 +5613,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
         <v>122</v>
@@ -5600,21 +5635,21 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -5622,10 +5657,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>348</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -5633,10 +5668,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -5644,10 +5679,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -5655,10 +5690,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -5666,10 +5701,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -5677,7 +5712,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -5688,7 +5723,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -5699,10 +5734,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>357</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -5710,10 +5745,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>348</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -5721,18 +5756,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
         <v>134</v>
@@ -5743,21 +5778,21 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -5765,10 +5800,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>350</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -5776,10 +5811,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -5787,10 +5822,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -5798,10 +5833,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>352</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5809,10 +5844,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>348</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -5820,10 +5855,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -5831,7 +5866,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -5842,7 +5877,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
@@ -5853,10 +5888,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>353</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -5864,10 +5899,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -5875,10 +5910,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5886,10 +5921,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="B41" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5897,10 +5932,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5908,10 +5943,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>358</v>
+        <v>122</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -5919,10 +5954,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -5930,10 +5965,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -5941,10 +5976,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -5952,10 +5987,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -5963,10 +5998,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -5974,10 +6009,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -5985,10 +6020,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>355</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -5996,10 +6031,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -6007,73 +6042,62 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>356</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>348</v>
       </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>199</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B58" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B59" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>212</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C59" t="b">
+      <c r="B60" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>200</v>
@@ -6082,45 +6106,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>227</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>228</v>
+      <c r="A63" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>200</v>
       </c>
       <c r="C63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>290</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -6128,10 +6130,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -6139,7 +6141,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>200</v>
@@ -6150,10 +6152,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -6161,10 +6163,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -6172,7 +6174,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>200</v>
@@ -6183,10 +6185,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -6194,10 +6196,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -6205,7 +6207,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>200</v>
@@ -6216,10 +6218,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -6227,10 +6229,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -6238,7 +6240,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>200</v>
@@ -6249,10 +6251,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -6260,10 +6262,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -6271,7 +6273,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>200</v>
@@ -6282,10 +6284,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -6293,10 +6295,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -6304,7 +6306,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>200</v>
@@ -6315,10 +6317,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -6326,10 +6328,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -6337,7 +6339,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>200</v>
@@ -6348,10 +6350,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -6359,10 +6361,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -6370,7 +6372,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>200</v>
@@ -6381,10 +6383,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -6392,10 +6394,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -6403,7 +6405,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>200</v>
@@ -6414,10 +6416,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -6425,10 +6427,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -6436,7 +6438,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>200</v>
@@ -6447,10 +6449,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -6458,10 +6460,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -6469,7 +6471,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>200</v>
@@ -6480,10 +6482,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -6491,10 +6493,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -6502,7 +6504,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>200</v>
@@ -6513,10 +6515,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -6524,10 +6526,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -6535,7 +6537,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>200</v>
@@ -6546,10 +6548,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -6557,10 +6559,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -6568,7 +6570,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>200</v>
@@ -6579,10 +6581,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -6590,10 +6592,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -6601,7 +6603,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>200</v>
@@ -6612,10 +6614,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -6623,10 +6625,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -6634,7 +6636,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>200</v>
@@ -6645,10 +6647,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -6656,10 +6658,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -6667,7 +6669,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>200</v>
@@ -6678,10 +6680,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -6689,10 +6691,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -6700,7 +6702,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>200</v>
@@ -6711,10 +6713,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
@@ -6722,12 +6724,56 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>343</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>344</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>345</v>
       </c>
-      <c r="B120" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C120" t="b">
+      <c r="B124" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DC510E-7F73-4EA2-AF80-9F887679B89D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9550C-7802-4A69-B933-3CDA9FD165CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1635,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
@@ -2510,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656AD7B-1D25-49AF-8239-544F03B0CB49}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>

--- a/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC9550C-7802-4A69-B933-3CDA9FD165CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA069AB-6141-4467-BF5F-2C5F3F22F94F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA069AB-6141-4467-BF5F-2C5F3F22F94F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF7E26-8E1E-4B6C-B82B-2AEB341D5C8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="357">
   <si>
     <t>setting_name</t>
   </si>
@@ -40,9 +39,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.tittle.text</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -73,9 +69,6 @@
     <t>display.prompt.text</t>
   </si>
   <si>
-    <t>display.prompt.text.portuguese</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -91,18 +84,12 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>display.title.text.portuguese</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
     <t>display.locale.text</t>
   </si>
   <si>
-    <t>display.locale.text.portuguese</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -118,9 +105,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>portuguese</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -454,9 +438,6 @@
     <t>RELA1</t>
   </si>
   <si>
-    <t>RELA2</t>
-  </si>
-  <si>
     <t>if</t>
   </si>
   <si>
@@ -466,12 +447,6 @@
     <t>assign</t>
   </si>
   <si>
-    <t>ETN1</t>
-  </si>
-  <si>
-    <t>ETN2</t>
-  </si>
-  <si>
     <t>ETN</t>
   </si>
   <si>
@@ -529,21 +504,12 @@
     <t>note</t>
   </si>
   <si>
-    <t>INF1</t>
-  </si>
-  <si>
-    <t>INF2</t>
-  </si>
-  <si>
     <t>FOGAO</t>
   </si>
   <si>
     <t>RELA1NOME</t>
   </si>
   <si>
-    <t>RELA2NOME</t>
-  </si>
-  <si>
     <t>relation</t>
   </si>
   <si>
@@ -1121,6 +1087,21 @@
   </si>
   <si>
     <t>linked_school</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>display.title.text.english</t>
+  </si>
+  <si>
+    <t>display.locale.text.english</t>
+  </si>
+  <si>
+    <t>display.prompt.text.english</t>
+  </si>
+  <si>
+    <t>VACNOHCERTO</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1187,6 +1168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,7 +1202,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1242,6 +1229,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -1529,7 +1517,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,29 +1537,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>353</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>21</v>
+        <v>354</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>270519</v>
@@ -1579,51 +1567,51 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1634,11 +1622,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,851 +1644,855 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" t="s">
-        <v>225</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" t="s">
-        <v>226</v>
-      </c>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F19" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F26" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F27" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F28" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F30" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E36" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E40" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="F44" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="F50" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F51" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="F52" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E53" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F53" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F54" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F57" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F58" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="F60" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F62" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F63" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F64" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D65" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F65" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D66" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D67" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E67" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F67" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D68" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F68" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D69" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F69" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D70" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F70" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D71" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D72" s="14" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F72" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D73" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F73" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" t="s">
+        <v>277</v>
+      </c>
+      <c r="F74" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="D76" s="14"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D77" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>216</v>
-      </c>
-      <c r="I77" t="s">
-        <v>217</v>
-      </c>
+      <c r="B77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="14"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78" s="14"/>
+      <c r="D78" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F78" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
       <c r="B79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" s="14"/>
-      <c r="G81" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D82" s="14"/>
+      <c r="G82" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,2032 +2523,2032 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I13" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I16" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I17" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I20" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I22" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I23" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I28" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I29" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I30" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I31" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D33" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I33" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B36" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I38" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I42" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I43" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D47" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I47" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I48" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I49" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I50" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I51" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B52" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I52" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E53" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I53" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I54" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I55" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I56" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I57" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D58" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I58" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I59" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B60" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I60" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I61" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I62" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I63" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I64" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I65" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I66" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I67" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I68" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I69" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E70" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I70" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4583,54 +4575,54 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="14" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="14" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4643,8 +4635,8 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,805 +4649,805 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B14" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
         <v>72</v>
       </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B36" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B37" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B38" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B39" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B40" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B41" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B42" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B43" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B44" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B45" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B46" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B47" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B48" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B49" t="str">
         <f>"15"</f>
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B50" t="str">
         <f>"16"</f>
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B51" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B52" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B53" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B54" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B55" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5466,37 +5458,37 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -5504,10 +5496,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5515,10 +5507,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5526,10 +5518,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5537,10 +5529,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>200</v>
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -5548,10 +5540,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -5559,10 +5551,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5570,10 +5562,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -5581,10 +5573,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -5592,10 +5584,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>137</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -5603,54 +5595,54 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>347</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -5658,10 +5650,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -5669,10 +5661,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -5680,10 +5672,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -5691,10 +5683,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -5702,10 +5694,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -5713,10 +5705,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -5724,10 +5716,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -5735,10 +5727,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -5746,10 +5738,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B25" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -5757,10 +5749,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -5768,10 +5760,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -5779,10 +5771,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -5790,10 +5782,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -5801,10 +5793,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B30" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -5812,10 +5804,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -5823,10 +5815,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B32" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -5834,10 +5826,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5845,10 +5837,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -5856,10 +5848,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -5867,10 +5859,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -5878,10 +5870,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -5889,10 +5881,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -5900,10 +5892,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -5911,10 +5903,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5922,10 +5914,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5933,10 +5925,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5944,10 +5936,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -5955,10 +5947,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -5966,10 +5958,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -5977,10 +5969,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -5988,10 +5980,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -5999,10 +5991,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -6010,10 +6002,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -6021,10 +6013,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>337</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -6032,10 +6024,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>355</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>348</v>
+        <v>24</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -6043,32 +6035,43 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>337</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>356</v>
-      </c>
-      <c r="B53" t="s">
-        <v>348</v>
-      </c>
-      <c r="C53" t="b">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C57" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>199</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>189</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -6076,54 +6079,54 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>214</v>
+      <c r="A61" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>209</v>
+      <c r="A63" t="s">
+        <v>215</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -6131,10 +6134,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -6142,10 +6145,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C67" t="b">
         <v>0</v>
@@ -6153,10 +6156,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
@@ -6164,10 +6167,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -6175,10 +6178,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -6186,10 +6189,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -6197,10 +6200,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -6208,10 +6211,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -6219,10 +6222,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -6230,10 +6233,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C75" t="b">
         <v>0</v>
@@ -6241,10 +6244,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C76" t="b">
         <v>0</v>
@@ -6252,10 +6255,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -6263,10 +6266,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -6274,10 +6277,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -6285,10 +6288,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -6296,10 +6299,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -6307,10 +6310,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -6318,10 +6321,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -6329,10 +6332,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -6340,10 +6343,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -6351,10 +6354,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -6362,10 +6365,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -6373,10 +6376,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -6384,10 +6387,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -6395,10 +6398,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -6406,10 +6409,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -6417,10 +6420,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -6428,10 +6431,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -6439,10 +6442,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -6450,10 +6453,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -6461,10 +6464,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -6472,10 +6475,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -6483,10 +6486,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -6494,10 +6497,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -6505,10 +6508,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C100" t="b">
         <v>0</v>
@@ -6516,10 +6519,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -6527,10 +6530,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -6538,10 +6541,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C103" t="b">
         <v>0</v>
@@ -6549,10 +6552,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -6560,10 +6563,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -6571,10 +6574,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -6582,10 +6585,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>
@@ -6593,10 +6596,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -6604,10 +6607,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -6615,10 +6618,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -6626,10 +6629,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C111" t="b">
         <v>0</v>
@@ -6637,10 +6640,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -6648,10 +6651,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -6659,10 +6662,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -6670,10 +6673,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -6681,10 +6684,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C116" t="b">
         <v>0</v>
@@ -6692,10 +6695,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C117" t="b">
         <v>0</v>
@@ -6703,10 +6706,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C118" t="b">
         <v>0</v>
@@ -6714,10 +6717,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
@@ -6725,10 +6728,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C120" t="b">
         <v>0</v>
@@ -6736,10 +6739,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -6747,34 +6750,12 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>344</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>345</v>
-      </c>
-      <c r="B124" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C124" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF7E26-8E1E-4B6C-B82B-2AEB341D5C8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4409322-F844-4FA7-97E6-44EEFA8912E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="356">
   <si>
     <t>setting_name</t>
   </si>
@@ -618,9 +618,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Updates LASTVISIT variable</t>
-  </si>
-  <si>
     <t>CONT</t>
   </si>
   <si>
@@ -633,9 +630,6 @@
     <t>MIFSCAR</t>
   </si>
   <si>
-    <t>Updates CICA variable</t>
-  </si>
-  <si>
     <t>CONSENTSIG</t>
   </si>
   <si>
@@ -1038,9 +1032,6 @@
     <t>VAC20INF</t>
   </si>
   <si>
-    <t>{ID: data('ID'), LASTVISIT: data('LASTVISIT'), CICA:data('CICA'), CONSENTSIG:data('CONSENTSIG'), VAC1TIPO:data('VAC1TIPO'), VAC1DATA:data('VAC1DATA'), VAC1INF:data('VAC1INF'), VAC2TIPO:data('VAC2TIPO'), VAC2DATA:data('VAC2DATA'), VAC2INF:data('VAC2INF'), VAC3TIPO:data('VAC3TIPO'), VAC3DATA:data('VAC3DATA'), VAC3INF:data('VAC3INF'), VAC4TIPO:data('VAC4TIPO'), VAC4DATA:data('VAC4DATA'), VAC4INF:data('VAC4INF'), VAC5TIPO:data('VAC5TIPO'), VAC5DATA:data('VAC5DATA'), VAC5INF:data('VAC5INF'), VAC6TIPO:data('VAC6TIPO'), VAC6DATA:data('VAC6DATA'), VAC6INF:data('VAC6INF'), VAC7TIPO:data('VAC7TIPO'), VAC7DATA:data('VAC7DATA'), VAC7INF:data('VAC7INF'), VAC8TIPO:data('VAC8TIPO'), VAC8DATA:data('VAC8DATA'), VAC8INF:data('VAC8INF'), VAC9TIPO:data('VAC9TIPO'), VAC9DATA:data('VAC9DATA'), VAC9INF:data('VAC9INF'), VAC10TIPO:data('VAC10TIPO'), VAC10DATA:data('VAC10DATA'), VAC10INF:data('VAC10INF'), VAC11TIPO:data('VAC11TIPO'), VAC11DATA:data('VAC11DATA'), VAC11INF:data('VAC11INF'), VAC12TIPO:data('VAC12TIPO'), VAC12DATA:data('VAC12DATA'), VAC12INF:data('VAC12INF'), VAC13TIPO:data('VAC13TIPO'), VAC13DATA:data('VAC13DATA'), VAC13INF:data('VAC13INF'), VAC14TIPO:data('VAC14TIPO'), VAC14DATA:data('VAC14DATA'), VAC14INF:data('VAC14INF'), VAC15TIPO:data('VAC15TIPO'), VAC15DATA:data('VAC15DATA'), VAC15INF:data('VAC15INF'), VAC16TIPO:data('VAC16TIPO'), VAC16DATA:data('VAC16DATA'), VAC16INF:data('VAC16INF'), VAC17TIPO:data('VAC17TIPO'), VAC17DATA:data('VAC17DATA'), VAC17INF:data('VAC17INF'), VAC18TIPO:data('VAC18TIPO'), VAC18DATA:data('VAC18DATA'), VAC18INF:data('VAC18INF'), VAC19TIPO:data('VAC19TIPO'), VAC19DATA:data('VAC19DATA'), VAC19INF:data('VAC19INF'), VAC20TIPO:data('VAC20TIPO'), VAC20DATA:data('VAC20DATA'), VAC20INF:data('VAC20INF') }</t>
-  </si>
-  <si>
     <t>ABNS</t>
   </si>
   <si>
@@ -1086,9 +1077,6 @@
     <t>ESCONS</t>
   </si>
   <si>
-    <t>linked_school</t>
-  </si>
-  <si>
     <t>english</t>
   </si>
   <si>
@@ -1102,6 +1090,15 @@
   </si>
   <si>
     <t>VACNOHCERTO</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>linked_pregnant</t>
+  </si>
+  <si>
+    <t>{ID: data('ID'), LASTVISIT: data('LASTVISIT'), CICA:data('CICA'), CONSENTSIG:data('CONSENTSIG'), GRCORE: data('GR'), VAC1TIPO:data('VAC1TIPO'), VAC1DATA:data('VAC1DATA'), VAC1INF:data('VAC1INF'), VAC2TIPO:data('VAC2TIPO'), VAC2DATA:data('VAC2DATA'), VAC2INF:data('VAC2INF'), VAC3TIPO:data('VAC3TIPO'), VAC3DATA:data('VAC3DATA'), VAC3INF:data('VAC3INF'), VAC4TIPO:data('VAC4TIPO'), VAC4DATA:data('VAC4DATA'), VAC4INF:data('VAC4INF'), VAC5TIPO:data('VAC5TIPO'), VAC5DATA:data('VAC5DATA'), VAC5INF:data('VAC5INF'), VAC6TIPO:data('VAC6TIPO'), VAC6DATA:data('VAC6DATA'), VAC6INF:data('VAC6INF'), VAC7TIPO:data('VAC7TIPO'), VAC7DATA:data('VAC7DATA'), VAC7INF:data('VAC7INF'), VAC8TIPO:data('VAC8TIPO'), VAC8DATA:data('VAC8DATA'), VAC8INF:data('VAC8INF'), VAC9TIPO:data('VAC9TIPO'), VAC9DATA:data('VAC9DATA'), VAC9INF:data('VAC9INF'), VAC10TIPO:data('VAC10TIPO'), VAC10DATA:data('VAC10DATA'), VAC10INF:data('VAC10INF'), VAC11TIPO:data('VAC11TIPO'), VAC11DATA:data('VAC11DATA'), VAC11INF:data('VAC11INF'), VAC12TIPO:data('VAC12TIPO'), VAC12DATA:data('VAC12DATA'), VAC12INF:data('VAC12INF'), VAC13TIPO:data('VAC13TIPO'), VAC13DATA:data('VAC13DATA'), VAC13INF:data('VAC13INF'), VAC14TIPO:data('VAC14TIPO'), VAC14DATA:data('VAC14DATA'), VAC14INF:data('VAC14INF'), VAC15TIPO:data('VAC15TIPO'), VAC15DATA:data('VAC15DATA'), VAC15INF:data('VAC15INF'), VAC16TIPO:data('VAC16TIPO'), VAC16DATA:data('VAC16DATA'), VAC16INF:data('VAC16INF'), VAC17TIPO:data('VAC17TIPO'), VAC17DATA:data('VAC17DATA'), VAC17INF:data('VAC17INF'), VAC18TIPO:data('VAC18TIPO'), VAC18DATA:data('VAC18DATA'), VAC18INF:data('VAC18INF'), VAC19TIPO:data('VAC19TIPO'), VAC19DATA:data('VAC19DATA'), VAC19INF:data('VAC19INF'), VAC20TIPO:data('VAC20TIPO'), VAC20DATA:data('VAC20DATA'), VAC20INF:data('VAC20INF') }</t>
   </si>
 </sst>
 </file>
@@ -1537,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>18</v>
@@ -1597,7 +1594,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1622,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>11</v>
@@ -1682,9 +1679,11 @@
         <v>156</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H3" s="20"/>
+        <v>212</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -1722,10 +1721,10 @@
         <v>189</v>
       </c>
       <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" t="s">
         <v>197</v>
-      </c>
-      <c r="F8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1733,10 +1732,10 @@
         <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1744,10 +1743,10 @@
         <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1755,10 +1754,10 @@
         <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1766,10 +1765,10 @@
         <v>191</v>
       </c>
       <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
         <v>207</v>
-      </c>
-      <c r="F12" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1777,46 +1776,46 @@
         <v>189</v>
       </c>
       <c r="E13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" t="s">
         <v>208</v>
       </c>
-      <c r="F13" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" t="s">
-        <v>215</v>
-      </c>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.25">
@@ -1824,26 +1823,26 @@
         <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>279</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
         <v>221</v>
@@ -1857,32 +1856,32 @@
         <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E23" t="s">
         <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.25">
@@ -1890,32 +1889,32 @@
         <v>189</v>
       </c>
       <c r="E24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E26" t="s">
         <v>227</v>
       </c>
       <c r="F26" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.25">
@@ -1923,32 +1922,32 @@
         <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F27" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
         <v>230</v>
       </c>
       <c r="F29" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.25">
@@ -1956,32 +1955,32 @@
         <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
         <v>233</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
@@ -1989,32 +1988,32 @@
         <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
@@ -2022,32 +2021,32 @@
         <v>189</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.25">
@@ -2055,32 +2054,32 @@
         <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F41" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.25">
@@ -2088,32 +2087,32 @@
         <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F42" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F43" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.25">
@@ -2121,32 +2120,32 @@
         <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F45" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.25">
@@ -2154,32 +2153,32 @@
         <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.25">
@@ -2187,32 +2186,32 @@
         <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F51" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F52" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F53" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.25">
@@ -2220,32 +2219,32 @@
         <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F54" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F55" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F56" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.25">
@@ -2253,32 +2252,32 @@
         <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F57" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F58" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F59" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.25">
@@ -2286,32 +2285,32 @@
         <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F61" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F62" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.25">
@@ -2319,180 +2318,191 @@
         <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F63" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" t="s">
+        <v>264</v>
+      </c>
+      <c r="F64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
+        <v>265</v>
+      </c>
+      <c r="F65" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" t="s">
         <v>267</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F67" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E65" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" t="s">
         <v>268</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F68" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E66" t="s">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" t="s">
         <v>269</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F69" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="14" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" t="s">
+        <v>270</v>
+      </c>
+      <c r="F70" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E67" t="s">
-        <v>270</v>
-      </c>
-      <c r="F67" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="E71" t="s">
         <v>271</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F71" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D69" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E69" t="s">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" t="s">
         <v>272</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F72" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D70" s="14" t="s">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D74" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E70" t="s">
-        <v>273</v>
-      </c>
-      <c r="F70" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="E74" t="s">
         <v>274</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F74" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D72" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" t="s">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D75" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" t="s">
         <v>275</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F75" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E73" t="s">
-        <v>276</v>
-      </c>
-      <c r="F73" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D74" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E74" t="s">
-        <v>277</v>
-      </c>
-      <c r="F74" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="14"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="14"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>135</v>
       </c>
-      <c r="C77" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" s="14"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D78" s="14" t="s">
+      <c r="C78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D79" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="F78" t="s">
-        <v>205</v>
-      </c>
-      <c r="I78" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="F79" t="s">
+        <v>203</v>
+      </c>
+      <c r="I79" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>136</v>
       </c>
-      <c r="D79" s="14"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" t="s">
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D82" s="14"/>
-      <c r="G82" s="15"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D83" s="14"/>
+      <c r="G83" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2501,7 +2511,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7656AD7B-1D25-49AF-8239-544F03B0CB49}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2571,7 +2581,7 @@
         <v>183</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>184</v>
@@ -2580,95 +2590,78 @@
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" t="s">
-        <v>196</v>
-      </c>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
         <v>182</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>184</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
         <v>182</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" t="s">
         <v>183</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>184</v>
       </c>
       <c r="I5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
         <v>181</v>
@@ -2691,13 +2684,13 @@
       <c r="H6" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>213</v>
+      <c r="I6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
         <v>181</v>
@@ -2721,12 +2714,12 @@
         <v>184</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
         <v>181</v>
@@ -2750,12 +2743,12 @@
         <v>184</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
         <v>181</v>
@@ -2779,12 +2772,12 @@
         <v>184</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
         <v>181</v>
@@ -2808,12 +2801,12 @@
         <v>184</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
         <v>181</v>
@@ -2836,42 +2829,19 @@
       <c r="H11" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="I11" t="s">
-        <v>215</v>
+      <c r="I11" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I12" t="s">
-        <v>216</v>
-      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
         <v>181</v>
@@ -2895,12 +2865,12 @@
         <v>184</v>
       </c>
       <c r="I13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>181</v>
@@ -2924,12 +2894,12 @@
         <v>184</v>
       </c>
       <c r="I14" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>181</v>
@@ -2953,12 +2923,12 @@
         <v>184</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
         <v>181</v>
@@ -2982,12 +2952,12 @@
         <v>184</v>
       </c>
       <c r="I16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
         <v>181</v>
@@ -3011,12 +2981,12 @@
         <v>184</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
         <v>181</v>
@@ -3040,12 +3010,12 @@
         <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
         <v>181</v>
@@ -3069,12 +3039,12 @@
         <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
         <v>181</v>
@@ -3098,12 +3068,12 @@
         <v>184</v>
       </c>
       <c r="I20" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s">
         <v>181</v>
@@ -3127,12 +3097,12 @@
         <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s">
         <v>181</v>
@@ -3156,12 +3126,12 @@
         <v>184</v>
       </c>
       <c r="I22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
         <v>181</v>
@@ -3185,12 +3155,12 @@
         <v>184</v>
       </c>
       <c r="I23" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
         <v>181</v>
@@ -3214,12 +3184,12 @@
         <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s">
         <v>181</v>
@@ -3243,12 +3213,12 @@
         <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
         <v>181</v>
@@ -3272,12 +3242,12 @@
         <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
         <v>181</v>
@@ -3301,12 +3271,12 @@
         <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s">
         <v>181</v>
@@ -3330,12 +3300,12 @@
         <v>184</v>
       </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B29" t="s">
         <v>181</v>
@@ -3359,12 +3329,12 @@
         <v>184</v>
       </c>
       <c r="I29" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
         <v>181</v>
@@ -3388,12 +3358,12 @@
         <v>184</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
         <v>181</v>
@@ -3417,12 +3387,12 @@
         <v>184</v>
       </c>
       <c r="I31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
         <v>181</v>
@@ -3446,12 +3416,12 @@
         <v>184</v>
       </c>
       <c r="I32" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
         <v>181</v>
@@ -3475,12 +3445,12 @@
         <v>184</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
         <v>181</v>
@@ -3504,12 +3474,12 @@
         <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B35" t="s">
         <v>181</v>
@@ -3533,12 +3503,12 @@
         <v>184</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s">
         <v>181</v>
@@ -3562,12 +3532,12 @@
         <v>184</v>
       </c>
       <c r="I36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s">
         <v>181</v>
@@ -3591,12 +3561,12 @@
         <v>184</v>
       </c>
       <c r="I37" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B38" t="s">
         <v>181</v>
@@ -3620,12 +3590,12 @@
         <v>184</v>
       </c>
       <c r="I38" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
         <v>181</v>
@@ -3649,12 +3619,12 @@
         <v>184</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s">
         <v>181</v>
@@ -3678,12 +3648,12 @@
         <v>184</v>
       </c>
       <c r="I40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s">
         <v>181</v>
@@ -3707,12 +3677,12 @@
         <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
         <v>181</v>
@@ -3736,12 +3706,12 @@
         <v>184</v>
       </c>
       <c r="I42" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
         <v>181</v>
@@ -3765,12 +3735,12 @@
         <v>184</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B44" t="s">
         <v>181</v>
@@ -3794,12 +3764,12 @@
         <v>184</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B45" t="s">
         <v>181</v>
@@ -3823,12 +3793,12 @@
         <v>184</v>
       </c>
       <c r="I45" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
         <v>181</v>
@@ -3852,12 +3822,12 @@
         <v>184</v>
       </c>
       <c r="I46" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s">
         <v>181</v>
@@ -3881,12 +3851,12 @@
         <v>184</v>
       </c>
       <c r="I47" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B48" t="s">
         <v>181</v>
@@ -3910,12 +3880,12 @@
         <v>184</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s">
         <v>181</v>
@@ -3939,12 +3909,12 @@
         <v>184</v>
       </c>
       <c r="I49" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B50" t="s">
         <v>181</v>
@@ -3968,12 +3938,12 @@
         <v>184</v>
       </c>
       <c r="I50" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B51" t="s">
         <v>181</v>
@@ -3997,12 +3967,12 @@
         <v>184</v>
       </c>
       <c r="I51" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
         <v>181</v>
@@ -4026,12 +3996,12 @@
         <v>184</v>
       </c>
       <c r="I52" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
         <v>181</v>
@@ -4055,12 +4025,12 @@
         <v>184</v>
       </c>
       <c r="I53" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
         <v>181</v>
@@ -4084,12 +4054,12 @@
         <v>184</v>
       </c>
       <c r="I54" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
         <v>181</v>
@@ -4113,12 +4083,12 @@
         <v>184</v>
       </c>
       <c r="I55" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B56" t="s">
         <v>181</v>
@@ -4142,12 +4112,12 @@
         <v>184</v>
       </c>
       <c r="I56" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
         <v>181</v>
@@ -4171,12 +4141,12 @@
         <v>184</v>
       </c>
       <c r="I57" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
         <v>181</v>
@@ -4200,12 +4170,12 @@
         <v>184</v>
       </c>
       <c r="I58" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
         <v>181</v>
@@ -4229,12 +4199,12 @@
         <v>184</v>
       </c>
       <c r="I59" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B60" t="s">
         <v>181</v>
@@ -4258,12 +4228,12 @@
         <v>184</v>
       </c>
       <c r="I60" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
         <v>181</v>
@@ -4287,12 +4257,12 @@
         <v>184</v>
       </c>
       <c r="I61" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B62" t="s">
         <v>181</v>
@@ -4316,12 +4286,12 @@
         <v>184</v>
       </c>
       <c r="I62" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B63" t="s">
         <v>181</v>
@@ -4345,12 +4315,12 @@
         <v>184</v>
       </c>
       <c r="I63" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
         <v>181</v>
@@ -4374,12 +4344,12 @@
         <v>184</v>
       </c>
       <c r="I64" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s">
         <v>181</v>
@@ -4403,12 +4373,12 @@
         <v>184</v>
       </c>
       <c r="I65" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B66" t="s">
         <v>181</v>
@@ -4432,12 +4402,12 @@
         <v>184</v>
       </c>
       <c r="I66" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B67" t="s">
         <v>181</v>
@@ -4461,12 +4431,12 @@
         <v>184</v>
       </c>
       <c r="I67" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B68" t="s">
         <v>181</v>
@@ -4490,12 +4460,12 @@
         <v>184</v>
       </c>
       <c r="I68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
         <v>181</v>
@@ -4519,12 +4489,12 @@
         <v>184</v>
       </c>
       <c r="I69" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B70" t="s">
         <v>181</v>
@@ -4548,7 +4518,65 @@
         <v>184</v>
       </c>
       <c r="I70" t="s">
-        <v>334</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>274</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" t="s">
+        <v>182</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I71" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I72" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4563,7 +4591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4595,9 +4623,7 @@
         <v>127</v>
       </c>
       <c r="C2" s="16"/>
-      <c r="D2" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -4607,22 +4633,20 @@
         <v>24</v>
       </c>
       <c r="C3" s="16"/>
-      <c r="D3" s="14" t="s">
-        <v>200</v>
-      </c>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
         <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4655,7 +4679,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>16</v>
@@ -5458,10 +5482,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -5496,10 +5520,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5562,10 +5586,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -5573,7 +5597,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -5617,10 +5641,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>347</v>
+        <v>24</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -5628,10 +5652,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -5639,10 +5663,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -5650,10 +5674,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -5661,7 +5685,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
         <v>129</v>
@@ -5672,10 +5696,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -5683,10 +5707,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -5694,10 +5718,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -5705,7 +5729,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -5716,10 +5740,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -5727,10 +5751,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -5738,54 +5762,54 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>346</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>337</v>
+        <v>129</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>344</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>347</v>
+        <v>123</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -5793,10 +5817,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -5804,7 +5828,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
         <v>123</v>
@@ -5815,10 +5839,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -5826,10 +5850,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -5837,10 +5861,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>341</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -5848,10 +5872,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
@@ -5859,7 +5883,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -5870,10 +5894,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>334</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -5881,10 +5905,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -5892,10 +5916,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>342</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>337</v>
+        <v>24</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -5903,10 +5927,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -5914,10 +5938,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -5925,10 +5949,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -5936,7 +5960,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
         <v>117</v>
@@ -5947,10 +5971,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -5958,7 +5982,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
         <v>117</v>
@@ -5969,10 +5993,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -5980,10 +6004,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -5991,118 +6015,130 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="C48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>356</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
       <c r="C49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>345</v>
-      </c>
-      <c r="B52" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>353</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>188</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B60" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>213</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>201</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>203</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>215</v>
-      </c>
       <c r="B63" s="19" t="s">
         <v>189</v>
       </c>
@@ -6110,9 +6146,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>191</v>
@@ -6123,7 +6159,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>189</v>
@@ -6134,7 +6170,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>189</v>
@@ -6145,7 +6181,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>191</v>
@@ -6156,7 +6192,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>189</v>
@@ -6167,7 +6203,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>189</v>
@@ -6178,7 +6214,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>191</v>
@@ -6189,7 +6225,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>189</v>
@@ -6200,7 +6236,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>189</v>
@@ -6211,7 +6247,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>191</v>
@@ -6222,7 +6258,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>189</v>
@@ -6233,7 +6269,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>189</v>
@@ -6244,7 +6280,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>191</v>
@@ -6255,7 +6291,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>189</v>
@@ -6266,7 +6302,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>189</v>
@@ -6277,7 +6313,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>191</v>
@@ -6288,7 +6324,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>189</v>
@@ -6299,7 +6335,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>189</v>
@@ -6310,7 +6346,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>191</v>
@@ -6321,7 +6357,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>189</v>
@@ -6332,7 +6368,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>189</v>
@@ -6343,7 +6379,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>191</v>
@@ -6354,7 +6390,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>189</v>
@@ -6365,7 +6401,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>189</v>
@@ -6376,7 +6412,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>191</v>
@@ -6387,7 +6423,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>189</v>
@@ -6398,7 +6434,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B90" s="19" t="s">
         <v>189</v>
@@ -6409,7 +6445,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B91" s="19" t="s">
         <v>191</v>
@@ -6420,7 +6456,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>189</v>
@@ -6431,7 +6467,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>189</v>
@@ -6442,7 +6478,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>191</v>
@@ -6453,7 +6489,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>189</v>
@@ -6464,7 +6500,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B96" s="19" t="s">
         <v>189</v>
@@ -6475,7 +6511,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>191</v>
@@ -6486,7 +6522,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>189</v>
@@ -6497,7 +6533,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>189</v>
@@ -6508,7 +6544,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>191</v>
@@ -6519,7 +6555,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>189</v>
@@ -6530,7 +6566,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B102" s="19" t="s">
         <v>189</v>
@@ -6541,7 +6577,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>191</v>
@@ -6552,7 +6588,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>189</v>
@@ -6563,7 +6599,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B105" s="19" t="s">
         <v>189</v>
@@ -6574,7 +6610,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B106" s="19" t="s">
         <v>191</v>
@@ -6585,7 +6621,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B107" s="19" t="s">
         <v>189</v>
@@ -6596,7 +6632,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B108" s="19" t="s">
         <v>189</v>
@@ -6607,7 +6643,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>191</v>
@@ -6618,7 +6654,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B110" s="19" t="s">
         <v>189</v>
@@ -6629,7 +6665,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B111" s="19" t="s">
         <v>189</v>
@@ -6640,7 +6676,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>191</v>
@@ -6651,7 +6687,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B113" s="19" t="s">
         <v>189</v>
@@ -6662,7 +6698,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B114" s="19" t="s">
         <v>189</v>
@@ -6673,7 +6709,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B115" s="19" t="s">
         <v>191</v>
@@ -6684,7 +6720,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B116" s="19" t="s">
         <v>189</v>
@@ -6695,7 +6731,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B117" s="19" t="s">
         <v>189</v>
@@ -6706,7 +6742,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B118" s="19" t="s">
         <v>191</v>
@@ -6717,7 +6753,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B119" s="19" t="s">
         <v>189</v>
@@ -6728,7 +6764,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B120" s="19" t="s">
         <v>189</v>
@@ -6739,7 +6775,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B121" s="19" t="s">
         <v>191</v>
@@ -6750,7 +6786,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B122" s="19" t="s">
         <v>189</v>
@@ -6760,6 +6796,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:C60">
+    <sortCondition ref="A53"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
+++ b/app/config/tables/MIF/forms/MIFVISIT/MIFVISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12F0E0B-9F43-42FD-B293-014E9EA49DB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38D863B-6574-4337-B84E-670634C1DA16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -1261,9 +1261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,12 +1492,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="1" sqref="A8:XFD10 A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
@@ -2128,7 +2128,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,7 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="A1:C1048576"/>
     </sheetView>
